--- a/medicine/Enfance/Serge_Dehaes/Serge_Dehaes.xlsx
+++ b/medicine/Enfance/Serge_Dehaes/Serge_Dehaes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge Dehaes, né le 16 juillet 1964 à Bruxelles (province de Brabant), est un illustrateur, dessinateur et coloriste de bande dessinée belge.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Dehaes naît le 16 juillet 1964 à Bruxelles[1].
-Graphiste de formation, il enseigne la communication visuelle à l'Académie royale des beaux-arts de Bruxelles, travaille comme art director en agence, puis s’installe comme illustrateur publicitaire et dessinateur de presse, notamment pour La Libre Belgique. À partir de 1998, il publie plusieurs livres jeunesse, dont On ira à Mopti aux Éditions Labor et Mon petit oiseau aux éditions La Joie de lire, avant de se consacrer à la bande dessinée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Dehaes naît le 16 juillet 1964 à Bruxelles.
+Graphiste de formation, il enseigne la communication visuelle à l'Académie royale des beaux-arts de Bruxelles, travaille comme art director en agence, puis s’installe comme illustrateur publicitaire et dessinateur de presse, notamment pour La Libre Belgique. À partir de 1998, il publie plusieurs livres jeunesse, dont On ira à Mopti aux Éditions Labor et Mon petit oiseau aux éditions La Joie de lire, avant de se consacrer à la bande dessinée.
 Parallèlement, il développe un travail artistique, notamment sur l’iconographie du jazz, et expose très régulièrement. Depuis 1990, il est également le coloriste attitré de Philippe Geluck.
-En 2023, à l’initiative du Lions Clubs Bruxelles Millénaire, des dessinateurs de bande dessinée dont Serge Dehaes ont décoré des tentes en carton dans le cadre de l'opération Une tente, une vie[3] et pour laquelle une vente caritative est organisée par Drouot[4].
+En 2023, à l’initiative du Lions Clubs Bruxelles Millénaire, des dessinateurs de bande dessinée dont Serge Dehaes ont décoré des tentes en carton dans le cadre de l'opération Une tente, une vie et pour laquelle une vente caritative est organisée par Drouot.
 </t>
         </is>
       </c>
@@ -547,17 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Artbooks
-Art &amp; Sketch, Éditions du Singe, 2014Scénario : Aucun - Dessin et couleurs : Serge Dehaes[5]
-Art &amp; Sex, Éditions du Singe, 2015Scénario : Aucun - Dessin et couleurs : Serge Dehaes[5]
-Dessine-moi un lapin, Auto-édition, 2017Scénario, dessin et couleurs : Serge Dehaes[5]
-Blue Note, Auto-édition, 2018Scénario, dessin et couleurs : Serge Dehaes[5]
-Corpus, Auto-édition, 2018Scénario, dessin et couleurs : Serge Dehaes[5]
-Jazz, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes[5]
-Sens dessus-dessous, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes[5]
-Birdland, Auto-édition, 2021Scénario, dessin et couleurs : Serge Dehaes[5]
-Bande dessinée
-Le Fils du Chat[6]
+          <t>Artbooks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Art &amp; Sketch, Éditions du Singe, 2014Scénario : Aucun - Dessin et couleurs : Serge Dehaes
+Art &amp; Sex, Éditions du Singe, 2015Scénario : Aucun - Dessin et couleurs : Serge Dehaes
+Dessine-moi un lapin, Auto-édition, 2017Scénario, dessin et couleurs : Serge Dehaes
+Blue Note, Auto-édition, 2018Scénario, dessin et couleurs : Serge Dehaes
+Corpus, Auto-édition, 2018Scénario, dessin et couleurs : Serge Dehaes
+Jazz, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes
+Sens dessus-dessous, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes
+Birdland, Auto-édition, 2021Scénario, dessin et couleurs : Serge Dehaes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Fils du Chat
 1 Le Portrait de Papa, Casterman, 1998Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12531-4)
 2 Le Soleil, Casterman, 1998Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12532-2)
 3 Rikiki, Casterman, 1998Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12533-0)
@@ -567,45 +620,309 @@
 7 La Surprise du Chef, Casterman, 2000Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12537-3)
 8 Papa, J'ai Peur, Casterman, 2001Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12538-1)
 9 24 Décembre, Casterman, 2001Scénario et dessin : Philippe Geluck - Couleurs : Serge Dehaes -  (ISBN 2-203-12539-X)
-Les Frères siamois[7]
+Les Frères siamois
 1 Coup double, Éditions Paquet, 2010Scénario : Bernard Hellebaut - Dessin et couleurs : Serge Dehaes -  (ISBN 978-2-88890-917-0)
 Mademoiselle F
-1 Mademoiselle F[8], Le Lombard, 2012Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-8036-3133-9)
+1 Mademoiselle F, Le Lombard, 2012Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-8036-3133-9)
 2 Mademoiselle F, Les Éditions Poivre &amp; Sel, 2014Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-87547-029-4)
 3 La Femme parfaite, Éditions d'A Côté, 2016Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-9701045-3-7)
-La Femme parfaite Intégrale[9], Éditions du Tiroir, février 2021Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 9782931027158),Format comics.
+La Femme parfaite Intégrale, Éditions du Tiroir, février 2021Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 9782931027158),Format comics.
 Manager mode d'emploi
-1 Manager mode d'emploi[10],[11], Audie, Paris, 2007Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-85815-019-9)
+1 Manager mode d'emploi Audie, Paris, 2007Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-85815-019-9)
 2 Ce travail m'a stresser, Audie, Paris, 2008Scénario, dessin et couleurs : Serge Dehaes -  (ISBN 978-2-85815-871-3)
-3 Manager mode d'emploi, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes
-Livres
-Essais
-Élisa Brune et Serge Dehaes, Labo Sexo, bonnes nouvelles du plaisir féminin, Éditions Odile Jacob (ISBN 9782738133564)
-Valérie d’Alkemade et Serge Dehaes, La Haute, Éditions Racine
-Livres pédagogiques
-Jacques Brotchi et Serge Dehaes, Dis, c'est quoi l'euthanasie ?, La Renaissance du Livre, 2020 (ISBN 9782507056667)
+3 Manager mode d'emploi, Auto-édition, 2019Scénario, dessin et couleurs : Serge Dehaes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Élisa Brune et Serge Dehaes, Labo Sexo, bonnes nouvelles du plaisir féminin, Éditions Odile Jacob (ISBN 9782738133564)
+Valérie d’Alkemade et Serge Dehaes, La Haute, Éditions Racine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Livres pédagogiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jacques Brotchi et Serge Dehaes, Dis, c'est quoi l'euthanasie ?, La Renaissance du Livre, 2020 (ISBN 9782507056667)
 Pascale Gustin et Serge Dehaes, Jeu t'aime, Éditions Yakapa SPF W+BXL
-Serge Dehaes, Alain Strument / Osez la musique! / Dansons, maintenant! / L’enfant et le théâtre / Enfants en difficulté, Éditions Labor
-Livres jeunesse
-Serge Dehaes, Mon petit oiseau, La Joie de lire
-Serge Dehaes, On ira à Mopti, Éditions Labor, 1997 (ISBN 9782804011666)
-Livres scolaires
-Serge Dehaes, J’apprends à compter / J’apprends à lire et à écrire / Vaincre la géométrie / Vaincre les fractions / Vaincre le vocabulaire / Vaincre la conjugaison / Vaincre les nombres / Vaincre le système métrique / Vaincre l’orthographe / Vaincre l’indifférence / Lectures pour toi / Écrire pour les autres / Constructions mathématiques, Éditions Labor
-Romans
-Patrick Weber et Serge Dehaes, Le Chat a vomi, Éditions Belfond, mars 2004 (ISBN 9782714439901)
+Serge Dehaes, Alain Strument / Osez la musique! / Dansons, maintenant! / L’enfant et le théâtre / Enfants en difficulté, Éditions Labor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Serge Dehaes, Mon petit oiseau, La Joie de lire
+Serge Dehaes, On ira à Mopti, Éditions Labor, 1997 (ISBN 9782804011666)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Livres scolaires</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Serge Dehaes, J’apprends à compter / J’apprends à lire et à écrire / Vaincre la géométrie / Vaincre les fractions / Vaincre le vocabulaire / Vaincre la conjugaison / Vaincre les nombres / Vaincre le système métrique / Vaincre l’orthographe / Vaincre l’indifférence / Lectures pour toi / Écrire pour les autres / Constructions mathématiques, Éditions Labor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Patrick Weber et Serge Dehaes, Le Chat a vomi, Éditions Belfond, mars 2004 (ISBN 9782714439901)
 Ardent Duchesne et Serge Dehaes, Les Jeux naissent tendres / L'Ancre rouge / Une aube violette, Éditions Yves Wauthier
-Ardent Duchesne et Serge Dehaes, Ombres &amp; Lumières, Éditions Les lettres boréales
-Expositions
-Expositions personnelles
-Juin 2019 : Cimaises du Rayon Vert - Exposition de dessins de Jazz - Festival « Jette Jazz June » (Jette)
+Ardent Duchesne et Serge Dehaes, Ombres &amp; Lumières, Éditions Les lettres boréales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Juin 2019 : Cimaises du Rayon Vert - Exposition de dessins de Jazz - Festival « Jette Jazz June » (Jette)
 Juillet 2019 : Galerie de l'A2 - Exposition de dessins de Jazz (Huy)
 Juillet 2019 : Cimaises d’Arômes &amp; Volup’Thées - Exposition de dessins de Jazz - Festival « ça Jazz à Huy » (Huy)
 Septembre 2019 : Cimaises de la librairie Ramd’Âme - Exposition de dessins de Jazz (Namur)
 Décembre 2019 : Librairie Peinture Fraîche - Exposition de dessins érotiques (Ixelles)
 2020 : Cimaise de Jazz9 - Exposition personnelle Jazz (Mazy)
-2023 : Connexion Galerie, Namur[12].
-Expositions collectives
-Décembre 2014 : La maison de l’image / Seed Factory Fortuna (Auderghem)
+2023 : Connexion Galerie, Namur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Dehaes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Décembre 2014 : La maison de l’image / Seed Factory Fortuna (Auderghem)
 Septembre 2015 : La maison de l’image / Seed Factory Pen is art (Auderghem)
 Septembre 2017 : La maison de l’image / Seed Factory Boob's Art (Auderghem)
 Octobre 2017 : La maison de l’image / Seed Factory Ever Meulen (Auderghem)
@@ -613,12 +930,12 @@
 Octobre 2018 : Galerie Magasin en paier - Salon du Dessin (Mons)
 Année 2019 : Les Mains d'Anvers - Exposition itinérante (La Havane (Cuba), Lisbonne (Portugal), Namur (Belgique), Maputo (Mozambique), Valenciennes (France), Madrid (Espagne) et d'autres villes encore...)
 Janvier 2019 : Galerie Arts Factory / Lolmède - Exposition de dessins sur cartons de bière (Paris)
-Juillet 2019 : Galerie Huberty Breyne - Exposition Chorale Jazz[13] avec Louis Joos, Jacques de Loustal et Christophe Chabouté (Ixelles)
+Juillet 2019 : Galerie Huberty Breyne - Exposition Chorale Jazz avec Louis Joos, Jacques de Loustal et Christophe Chabouté (Ixelles)
 Juillet/août 2019 : Pavillon du cartoonfestival de Knokke-Heist 2019 - Exposition des meilleurs dessins parus dans la presse en 2018 (Heist)
 Octobre 2019 : La maison de l’image / Seed Factory - Exposition Philippe Geluck &amp; friends (Auderghem)
 Novembre 2019 : Parcours d’artistes de Neder-Over-Heembeek - Exposition de dessins urbains - Ferme Nos Pilifs
 Août 2020 : Galerie de l'A2 - Exposition de dessins urbains (Huy).
-Coups d'œil, Espace d'Art Le Neuf, Marilles du 15 mars au 14 avril 2024[14],[15].</t>
+Coups d'œil, Espace d'Art Le Neuf, Marilles du 15 mars au 14 avril 2024,.</t>
         </is>
       </c>
     </row>
